--- a/Brugerundersøgelser.xlsx
+++ b/Brugerundersøgelser.xlsx
@@ -5,25 +5,28 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jansi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jansi\Dropbox\JSGAMINGTV min\Code\eksamensprojekt-3.-dec-2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB0EA4F2-1A30-4120-B195-CE65B0D45733}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BC79F9E-2D83-4137-888B-8C671845BADF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data (fra VoxPop)" sheetId="1" r:id="rId1"/>
     <sheet name="Data fra klassen" sheetId="5" r:id="rId2"/>
-    <sheet name="Information (Sætninger)" sheetId="3" r:id="rId3"/>
-    <sheet name="Knowledge (User Stories)" sheetId="4" r:id="rId4"/>
-    <sheet name="Settings" sheetId="2" r:id="rId5"/>
+    <sheet name="Data fra klassen (redigeret)" sheetId="6" r:id="rId3"/>
+    <sheet name="Data fra klassen (diagram" sheetId="7" r:id="rId4"/>
+    <sheet name="Information (Sætninger)" sheetId="3" r:id="rId5"/>
+    <sheet name="Knowledge (User Stories)" sheetId="4" r:id="rId6"/>
+    <sheet name="Settings" sheetId="2" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -59,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1717" uniqueCount="636">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1908" uniqueCount="690">
   <si>
     <t>Gruppe</t>
   </si>
@@ -1967,13 +1970,175 @@
   </si>
   <si>
     <t>Lidt flere farver</t>
+  </si>
+  <si>
+    <t>Legetøj</t>
+  </si>
+  <si>
+    <t>Farverne = 6</t>
+  </si>
+  <si>
+    <t>Legetøj/spil</t>
+  </si>
+  <si>
+    <t>Julepynt = 8</t>
+  </si>
+  <si>
+    <t>Legetøj = 5</t>
+  </si>
+  <si>
+    <t>Flere farver = 9</t>
+  </si>
+  <si>
+    <t>Ting til ældre børn = 3</t>
+  </si>
+  <si>
+    <t>Tøj og brætspil = 3</t>
+  </si>
+  <si>
+    <t>Not available = 3</t>
+  </si>
+  <si>
+    <t>Indholdsfortegnelse = 1</t>
+  </si>
+  <si>
+    <t>Der mangler flere</t>
+  </si>
+  <si>
+    <t>Farverne er fine = 6</t>
+  </si>
+  <si>
+    <t>Der mangler flere farver = 3</t>
+  </si>
+  <si>
+    <t>Kedelige</t>
+  </si>
+  <si>
+    <t>Kedelige = 8</t>
+  </si>
+  <si>
+    <t>Not available = 2</t>
+  </si>
+  <si>
+    <t>Not available = 1</t>
+  </si>
+  <si>
+    <t>Forsiden = 4</t>
+  </si>
+  <si>
+    <t>Side 29 = 2</t>
+  </si>
+  <si>
+    <t>Side 22 = 2</t>
+  </si>
+  <si>
+    <t>Side 33 = 2</t>
+  </si>
+  <si>
+    <t>Side 20 = 1</t>
+  </si>
+  <si>
+    <t>Side 78+79 = 1</t>
+  </si>
+  <si>
+    <t>Side 34 = 1</t>
+  </si>
+  <si>
+    <t>Side 108+109 = 1</t>
+  </si>
+  <si>
+    <t>Side 44+45 = 2</t>
+  </si>
+  <si>
+    <t>Side 36 = 2</t>
+  </si>
+  <si>
+    <t>Ja = 6</t>
+  </si>
+  <si>
+    <t>Nej = 13</t>
+  </si>
+  <si>
+    <t>Nej = 6</t>
+  </si>
+  <si>
+    <t>Flere farver = 7</t>
+  </si>
+  <si>
+    <t>Flere Baby ting</t>
+  </si>
+  <si>
+    <t>Færre baby ting</t>
+  </si>
+  <si>
+    <t>Flere kreative ting = 2</t>
+  </si>
+  <si>
+    <t>Flere baby ting</t>
+  </si>
+  <si>
+    <t>Flere baby ting = 2</t>
+  </si>
+  <si>
+    <t>Flere vinter ting = 1</t>
+  </si>
+  <si>
+    <t>Færre baby ting = 1</t>
+  </si>
+  <si>
+    <t>Antal</t>
+  </si>
+  <si>
+    <t>Ting til ældre børn</t>
+  </si>
+  <si>
+    <t>Intet svar</t>
+  </si>
+  <si>
+    <t>Der mangler flere farver</t>
+  </si>
+  <si>
+    <t>Forsiden</t>
+  </si>
+  <si>
+    <t>Side 29</t>
+  </si>
+  <si>
+    <t>Side 22</t>
+  </si>
+  <si>
+    <t>Side 33</t>
+  </si>
+  <si>
+    <t>Side 44 og 45</t>
+  </si>
+  <si>
+    <t>Side 36</t>
+  </si>
+  <si>
+    <t>Side 20</t>
+  </si>
+  <si>
+    <t>Side 78 og 79</t>
+  </si>
+  <si>
+    <t>Side 34</t>
+  </si>
+  <si>
+    <t>Side 108 og 109</t>
+  </si>
+  <si>
+    <t>Flere vinter ting</t>
+  </si>
+  <si>
+    <t>Hvilken side er flottest?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2004,8 +2169,50 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2024,8 +2231,38 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -2033,12 +2270,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2069,14 +2328,33 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="4" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="3" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="6" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="5" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="7" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="8" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="9">
     <cellStyle name="60% - Accent1" xfId="1" builtinId="32"/>
+    <cellStyle name="Accent1" xfId="7" builtinId="29"/>
+    <cellStyle name="Accent2" xfId="8" builtinId="33"/>
+    <cellStyle name="Bad" xfId="3" builtinId="27"/>
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
+    <cellStyle name="Input" xfId="5" builtinId="20"/>
+    <cellStyle name="Neutral" xfId="4" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Warning Text" xfId="6" builtinId="11"/>
   </cellStyles>
   <dxfs count="6">
     <dxf>
@@ -2145,6 +2423,6829 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Hvad syntes du er fedt i kataloget?</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Data fra klassen (diagram'!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Julepynt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Data fra klassen (diagram'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Antal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Data fra klassen (diagram'!$B$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0F31-4573-9CC3-D85918A67D3E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Data fra klassen (diagram'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Farverne</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Data fra klassen (diagram'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Antal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Data fra klassen (diagram'!$B$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0F31-4573-9CC3-D85918A67D3E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Data fra klassen (diagram'!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Legetøj</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Data fra klassen (diagram'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Antal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Data fra klassen (diagram'!$B$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0F31-4573-9CC3-D85918A67D3E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="605840815"/>
+        <c:axId val="609205439"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="605840815"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="609205439"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="609205439"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="605840815"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Hvad syntes du mangler?</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Data fra klassen (diagram'!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Flere farver</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Data fra klassen (diagram'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Antal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Data fra klassen (diagram'!$D$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F3A7-4CCF-8A02-FF12BC83D7C7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Data fra klassen (diagram'!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ting til ældre børn</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Data fra klassen (diagram'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Antal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Data fra klassen (diagram'!$D$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F3A7-4CCF-8A02-FF12BC83D7C7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Data fra klassen (diagram'!$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tøj og brætspil</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Data fra klassen (diagram'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Antal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Data fra klassen (diagram'!$D$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F3A7-4CCF-8A02-FF12BC83D7C7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Data fra klassen (diagram'!$C$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Indholdsfortegnelse</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Data fra klassen (diagram'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Antal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Data fra klassen (diagram'!$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-F3A7-4CCF-8A02-FF12BC83D7C7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Data fra klassen (diagram'!$C$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Intet svar</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Data fra klassen (diagram'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Antal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Data fra klassen (diagram'!$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-F3A7-4CCF-8A02-FF12BC83D7C7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="610288303"/>
+        <c:axId val="605297599"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="610288303"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="605297599"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="605297599"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="610288303"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Hvad syntes du om farverne i kataloget?</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Data fra klassen (diagram'!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Kedelige</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Data fra klassen (diagram'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Antal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Data fra klassen (diagram'!$F$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BE11-4F4D-832D-048F1CE79C2E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Data fra klassen (diagram'!$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Farverne er fine</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Data fra klassen (diagram'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Antal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Data fra klassen (diagram'!$F$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BE11-4F4D-832D-048F1CE79C2E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Data fra klassen (diagram'!$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Der mangler flere farver</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Data fra klassen (diagram'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Antal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Data fra klassen (diagram'!$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-BE11-4F4D-832D-048F1CE79C2E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Data fra klassen (diagram'!$E$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Intet svar</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Data fra klassen (diagram'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Antal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Data fra klassen (diagram'!$F$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-BE11-4F4D-832D-048F1CE79C2E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="610217759"/>
+        <c:axId val="681114735"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="610217759"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="681114735"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="681114735"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="610217759"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Hvilken side er flottest?</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Data fra klassen (diagram'!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Forsiden</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Data fra klassen (diagram'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Antal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Data fra klassen (diagram'!$H$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-ACA1-42B4-AD28-2D18D4F836F0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Data fra klassen (diagram'!$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Side 29</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Data fra klassen (diagram'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Antal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Data fra klassen (diagram'!$H$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-ACA1-42B4-AD28-2D18D4F836F0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Data fra klassen (diagram'!$G$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Side 22</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Data fra klassen (diagram'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Antal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Data fra klassen (diagram'!$H$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-ACA1-42B4-AD28-2D18D4F836F0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Data fra klassen (diagram'!$G$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Side 33</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Data fra klassen (diagram'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Antal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Data fra klassen (diagram'!$H$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-ACA1-42B4-AD28-2D18D4F836F0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Data fra klassen (diagram'!$G$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Side 44 og 45</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Data fra klassen (diagram'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Antal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Data fra klassen (diagram'!$H$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-ACA1-42B4-AD28-2D18D4F836F0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Data fra klassen (diagram'!$G$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Side 36</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Data fra klassen (diagram'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Antal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Data fra klassen (diagram'!$H$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-ACA1-42B4-AD28-2D18D4F836F0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Data fra klassen (diagram'!$G$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Side 20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Data fra klassen (diagram'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Antal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Data fra klassen (diagram'!$H$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-ACA1-42B4-AD28-2D18D4F836F0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Data fra klassen (diagram'!$G$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Side 78 og 79</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Data fra klassen (diagram'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Antal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Data fra klassen (diagram'!$H$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-ACA1-42B4-AD28-2D18D4F836F0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Data fra klassen (diagram'!$G$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Side 34</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Data fra klassen (diagram'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Antal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Data fra klassen (diagram'!$H$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-ACA1-42B4-AD28-2D18D4F836F0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Data fra klassen (diagram'!$G$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Side 108 og 109</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Data fra klassen (diagram'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Antal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Data fra klassen (diagram'!$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-ACA1-42B4-AD28-2D18D4F836F0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Data fra klassen (diagram'!$G$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Intet svar</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Data fra klassen (diagram'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Antal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Data fra klassen (diagram'!$H$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-ACA1-42B4-AD28-2D18D4F836F0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="688344047"/>
+        <c:axId val="605308831"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="688344047"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="605308831"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="605308831"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="688344047"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Er kataloget julet nok?</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Data fra klassen (diagram'!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Nej</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Data fra klassen (diagram'!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Antal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Data fra klassen (diagram'!$J$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5C20-48C4-AC37-A0A957AE723F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Data fra klassen (diagram'!$I$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ja</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Data fra klassen (diagram'!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Antal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Data fra klassen (diagram'!$J$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5C20-48C4-AC37-A0A957AE723F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="564297375"/>
+        <c:axId val="695477759"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="564297375"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="695477759"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="695477759"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="564297375"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Har du forslag til nye ting i kataloget?</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Data fra klassen (diagram'!$K$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Flere farver</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Data fra klassen (diagram'!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Antal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Data fra klassen (diagram'!$L$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2E08-40B4-B444-85366360D9F2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Data fra klassen (diagram'!$K$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Nej</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Data fra klassen (diagram'!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Antal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Data fra klassen (diagram'!$L$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2E08-40B4-B444-85366360D9F2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Data fra klassen (diagram'!$K$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Flere kreative ting</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Data fra klassen (diagram'!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Antal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Data fra klassen (diagram'!$L$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2E08-40B4-B444-85366360D9F2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Data fra klassen (diagram'!$K$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Flere baby ting</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Data fra klassen (diagram'!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Antal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Data fra klassen (diagram'!$L$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-2E08-40B4-B444-85366360D9F2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Data fra klassen (diagram'!$K$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Flere vinter ting</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Data fra klassen (diagram'!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Antal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Data fra klassen (diagram'!$L$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-2E08-40B4-B444-85366360D9F2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Data fra klassen (diagram'!$K$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Færre baby ting</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Data fra klassen (diagram'!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Antal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Data fra klassen (diagram'!$L$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-2E08-40B4-B444-85366360D9F2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="695836447"/>
+        <c:axId val="609593199"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="695836447"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="609593199"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="609593199"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="695836447"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1990725</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{292C8385-9578-4EB7-96D1-F53A6C205848}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2019300</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A201216-AB90-4664-B4AD-EF95972AF678}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2190750</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{732939F2-4179-46B9-9370-5826937F3106}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1695451</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F020E677-BD4D-4635-9B22-5E29289ABD2B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1152525</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D632F82-E3A5-437E-BC1B-5AE9EABFCC2B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1876425</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F433A52A-9EFC-4E46-BA3B-7D9B0640097D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2490,44 +9591,44 @@
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12" t="s">
+      <c r="C1" s="13"/>
+      <c r="D1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12" t="s">
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12" t="s">
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12" t="s">
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="U1" s="12"/>
+      <c r="U1" s="13"/>
       <c r="V1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="W1" s="12" t="s">
+      <c r="W1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="12"/>
-      <c r="Y1" s="12"/>
+      <c r="X1" s="13"/>
+      <c r="Y1" s="13"/>
       <c r="Z1" s="10" t="s">
         <v>8</v>
       </c>
@@ -6445,9 +13546,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E52B73D-74E4-4657-9118-9DC711B7C0B3}">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
+      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6464,22 +13565,22 @@
       <c r="A1" t="s">
         <v>552</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>546</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>547</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>548</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="12" t="s">
         <v>549</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="12" t="s">
         <v>550</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="12" t="s">
         <v>551</v>
       </c>
     </row>
@@ -6523,7 +13624,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -6546,7 +13647,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -6569,7 +13670,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -6661,7 +13762,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -6921,6 +14022,1017 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33106C0B-41ED-4C7C-9C32-8DC4859C565F}">
+  <dimension ref="A1:G34"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="51.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="47" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="40.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>552</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>546</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>547</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>548</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>549</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>550</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="14">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>553</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>554</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>646</v>
+      </c>
+      <c r="E2" s="14"/>
+      <c r="F2" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="14">
+        <v>2</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>557</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>554</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>646</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>560</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="14">
+        <v>3</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>557</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>568</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>578</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>564</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="14">
+        <v>4</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>557</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>568</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>578</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>570</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="14">
+        <v>5</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>557</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>568</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>578</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>573</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="14">
+        <v>6</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>557</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>554</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>646</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>579</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="14">
+        <v>7</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>638</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>582</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>649</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>579</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="14">
+        <v>8</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>638</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>582</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>578</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>587</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="14">
+        <v>9</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>638</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>554</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>578</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>593</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="14">
+        <v>10</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>557</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>582</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>610</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>599</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="14">
+        <v>11</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>553</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>554</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>610</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>605</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="22" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="14">
+        <v>12</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>553</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>554</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>610</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>611</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>553</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>554</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>610</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>611</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="14">
+        <v>14</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>553</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="D15" s="14"/>
+      <c r="E15" s="19" t="s">
+        <v>619</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="14">
+        <v>15</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>553</v>
+      </c>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="19" t="s">
+        <v>619</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="14">
+        <v>16</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>638</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>622</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>610</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>624</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="14">
+        <v>17</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>638</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>610</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>628</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="22" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="14">
+        <v>18</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>557</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>554</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>578</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>633</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" s="18" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="14">
+        <v>19</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>557</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>554</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>578</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>633</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" s="18" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="G24" s="14" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C27" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C28" s="20" t="s">
+        <v>644</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>651</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>661</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E29" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E30" s="3" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E31" s="3" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E32" s="3" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="33" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E33" s="3" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="34" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E34" s="20" t="s">
+        <v>652</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61234DCD-FF72-47E5-AF58-8EFE65BF83BF}">
+  <dimension ref="A1:L32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.140625" customWidth="1"/>
+    <col min="3" max="3" width="40.140625" customWidth="1"/>
+    <col min="4" max="4" width="33.28515625" customWidth="1"/>
+    <col min="5" max="5" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.140625" customWidth="1"/>
+    <col min="7" max="7" width="45.42578125" customWidth="1"/>
+    <col min="8" max="8" width="28.5703125" customWidth="1"/>
+    <col min="9" max="9" width="54" customWidth="1"/>
+    <col min="10" max="10" width="21" customWidth="1"/>
+    <col min="11" max="11" width="43.5703125" customWidth="1"/>
+    <col min="12" max="12" width="29.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>546</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>674</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>547</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>674</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>548</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>674</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>689</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>674</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>550</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>674</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>551</v>
+      </c>
+      <c r="L1" s="16" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>557</v>
+      </c>
+      <c r="B2">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>554</v>
+      </c>
+      <c r="D2">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>649</v>
+      </c>
+      <c r="F2">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>678</v>
+      </c>
+      <c r="H2">
+        <v>4</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2">
+        <v>13</v>
+      </c>
+      <c r="K2" t="s">
+        <v>554</v>
+      </c>
+      <c r="L2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>553</v>
+      </c>
+      <c r="B3">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>675</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>610</v>
+      </c>
+      <c r="F3">
+        <v>6</v>
+      </c>
+      <c r="G3" t="s">
+        <v>679</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3">
+        <v>6</v>
+      </c>
+      <c r="K3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>636</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>582</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>677</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4" t="s">
+        <v>680</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="K4" t="s">
+        <v>613</v>
+      </c>
+      <c r="L4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>622</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>676</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5" t="s">
+        <v>681</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="K5" t="s">
+        <v>670</v>
+      </c>
+      <c r="L5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>676</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="G6" t="s">
+        <v>682</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="K6" t="s">
+        <v>688</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>683</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="K7" t="s">
+        <v>668</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G8" t="s">
+        <v>684</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>685</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G10" t="s">
+        <v>686</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
+        <v>687</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
+        <v>676</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="14"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D12C673-AC29-460A-A05E-2B32F1265493}">
   <dimension ref="A1:C342"/>
   <sheetViews>
@@ -8637,7 +16749,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E07A31C9-997D-4E9C-99F0-AA5B6C8270E2}">
   <dimension ref="A1:C328"/>
   <sheetViews>
@@ -10038,7 +18150,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A447413D-B0CE-45E3-B762-29242656DDCD}">
   <dimension ref="A1:G11"/>
   <sheetViews>

--- a/Brugerundersøgelser.xlsx
+++ b/Brugerundersøgelser.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jansi\Dropbox\JSGAMINGTV min\Code\eksamensprojekt-3.-dec-2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programmer\Dropbox\JSGAMINGTV min\Code\eksamensprojekt-3.-dec-2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BC79F9E-2D83-4137-888B-8C671845BADF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A894BD-B64A-4642-BD0B-F90D33F94EC2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1908" uniqueCount="690">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1909" uniqueCount="691">
   <si>
     <t>Gruppe</t>
   </si>
@@ -2132,6 +2132,9 @@
   </si>
   <si>
     <t>Hvilken side er flottest?</t>
+  </si>
+  <si>
+    <t>100*8/19 = procenten</t>
   </si>
 </sst>
 </file>
@@ -2329,9 +2332,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
@@ -2344,6 +2344,9 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="5" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="7" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="8" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="60% - Accent1" xfId="1" builtinId="32"/>
@@ -2497,7 +2500,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="LID4096"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2758,7 +2761,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="LID4096"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="609205439"/>
@@ -2817,7 +2820,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="LID4096"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="605840815"/>
@@ -2859,7 +2862,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="LID4096"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2889,7 +2892,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="LID4096"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2972,7 +2975,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="LID4096"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3302,7 +3305,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="LID4096"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="605297599"/>
@@ -3361,7 +3364,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="LID4096"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="610288303"/>
@@ -3403,7 +3406,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="LID4096"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3433,7 +3436,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="LID4096"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3516,7 +3519,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="LID4096"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3793,7 +3796,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="LID4096"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="681114735"/>
@@ -3852,7 +3855,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="LID4096"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="610217759"/>
@@ -3894,7 +3897,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="LID4096"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3924,7 +3927,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="LID4096"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4003,7 +4006,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="LID4096"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4661,7 +4664,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="LID4096"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="605308831"/>
@@ -4720,7 +4723,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="LID4096"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="688344047"/>
@@ -4762,7 +4765,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="LID4096"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4792,7 +4795,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="LID4096"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4868,7 +4871,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="LID4096"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5039,7 +5042,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="LID4096"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="695477759"/>
@@ -5098,7 +5101,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="LID4096"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="564297375"/>
@@ -5140,7 +5143,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="LID4096"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5170,7 +5173,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="LID4096"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5253,7 +5256,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="LID4096"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5636,7 +5639,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="LID4096"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="609593199"/>
@@ -5695,7 +5698,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="LID4096"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="695836447"/>
@@ -5737,7 +5740,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="LID4096"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5767,7 +5770,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="LID4096"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9591,44 +9594,44 @@
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13" t="s">
+      <c r="C1" s="23"/>
+      <c r="D1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13" t="s">
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13" t="s">
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13" t="s">
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="U1" s="13"/>
+      <c r="U1" s="23"/>
       <c r="V1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="W1" s="13" t="s">
+      <c r="W1" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="13"/>
-      <c r="Y1" s="13"/>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="23"/>
       <c r="Z1" s="10" t="s">
         <v>8</v>
       </c>
@@ -14042,454 +14045,454 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>552</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>546</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>547</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="14" t="s">
         <v>548</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="14" t="s">
         <v>549</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="14" t="s">
         <v>550</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="14" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="14">
+      <c r="A2" s="13">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="17" t="s">
         <v>553</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="16" t="s">
         <v>554</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="17" t="s">
         <v>646</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="19" t="s">
+      <c r="E2" s="13"/>
+      <c r="F2" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="16" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="14">
+      <c r="A3" s="13">
         <v>2</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="16" t="s">
         <v>557</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="16" t="s">
         <v>554</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="17" t="s">
         <v>646</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="13" t="s">
         <v>560</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="16" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="14">
+      <c r="A4" s="13">
         <v>3</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="16" t="s">
         <v>557</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="17" t="s">
         <v>568</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="18" t="s">
         <v>578</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="17" t="s">
         <v>564</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="17" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="14">
+      <c r="A5" s="13">
         <v>4</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="16" t="s">
         <v>557</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="17" t="s">
         <v>568</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="18" t="s">
         <v>578</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="13" t="s">
         <v>570</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="17" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="14">
+      <c r="A6" s="13">
         <v>5</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="16" t="s">
         <v>557</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="17" t="s">
         <v>568</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="18" t="s">
         <v>578</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="17" t="s">
         <v>573</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="17" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="14">
+      <c r="A7" s="13">
         <v>6</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="16" t="s">
         <v>557</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="16" t="s">
         <v>554</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="17" t="s">
         <v>646</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="16" t="s">
         <v>579</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="18" t="s">
+      <c r="G7" s="17" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="14">
+      <c r="A8" s="13">
         <v>7</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="18" t="s">
         <v>638</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="18" t="s">
         <v>582</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="18" t="s">
         <v>649</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="16" t="s">
         <v>579</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="F8" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="G8" s="16" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="14">
+      <c r="A9" s="13">
         <v>8</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="18" t="s">
         <v>638</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="18" t="s">
         <v>582</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="18" t="s">
         <v>578</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="16" t="s">
         <v>587</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="F9" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="G9" s="16" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="14">
+      <c r="A10" s="13">
         <v>9</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="18" t="s">
         <v>638</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="16" t="s">
         <v>554</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="18" t="s">
         <v>578</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="16" t="s">
         <v>593</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="18" t="s">
+      <c r="G10" s="17" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="14">
+      <c r="A11" s="13">
         <v>10</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="16" t="s">
         <v>557</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="18" t="s">
         <v>582</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="16" t="s">
         <v>610</v>
       </c>
-      <c r="E11" s="23" t="s">
+      <c r="E11" s="22" t="s">
         <v>599</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="F11" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="14" t="s">
+      <c r="G11" s="13" t="s">
         <v>601</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="14">
+      <c r="A12" s="13">
         <v>11</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="17" t="s">
         <v>553</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="16" t="s">
         <v>554</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="16" t="s">
         <v>610</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="13" t="s">
         <v>605</v>
       </c>
-      <c r="F12" s="19" t="s">
+      <c r="F12" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="G12" s="22" t="s">
+      <c r="G12" s="21" t="s">
         <v>667</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="14">
+      <c r="A13" s="13">
         <v>12</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="17" t="s">
         <v>553</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="16" t="s">
         <v>554</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="16" t="s">
         <v>610</v>
       </c>
-      <c r="E13" s="22" t="s">
+      <c r="E13" s="21" t="s">
         <v>611</v>
       </c>
-      <c r="F13" s="17" t="s">
+      <c r="F13" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="19" t="s">
+      <c r="G13" s="18" t="s">
         <v>613</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="14">
+      <c r="A14" s="13">
         <v>13</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="17" t="s">
         <v>553</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="16" t="s">
         <v>554</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="16" t="s">
         <v>610</v>
       </c>
-      <c r="E14" s="22" t="s">
+      <c r="E14" s="21" t="s">
         <v>611</v>
       </c>
-      <c r="F14" s="17" t="s">
+      <c r="F14" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="G14" s="19" t="s">
+      <c r="G14" s="18" t="s">
         <v>613</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="14">
+      <c r="A15" s="13">
         <v>14</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="17" t="s">
         <v>553</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="19" t="s">
+      <c r="D15" s="13"/>
+      <c r="E15" s="18" t="s">
         <v>619</v>
       </c>
-      <c r="F15" s="19" t="s">
+      <c r="F15" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="G15" s="17" t="s">
+      <c r="G15" s="16" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="14">
+      <c r="A16" s="13">
         <v>15</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="17" t="s">
         <v>553</v>
       </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="19" t="s">
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="18" t="s">
         <v>619</v>
       </c>
-      <c r="F16" s="17" t="s">
+      <c r="F16" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="G16" s="17" t="s">
+      <c r="G16" s="16" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="14">
+      <c r="A17" s="13">
         <v>16</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="18" t="s">
         <v>638</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="13" t="s">
         <v>622</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="16" t="s">
         <v>610</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E17" s="13" t="s">
         <v>624</v>
       </c>
-      <c r="F17" s="17" t="s">
+      <c r="F17" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="G17" s="14" t="s">
+      <c r="G17" s="13" t="s">
         <v>668</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="14">
+      <c r="A18" s="13">
         <v>17</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="18" t="s">
         <v>638</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="16" t="s">
         <v>610</v>
       </c>
-      <c r="E18" s="23" t="s">
+      <c r="E18" s="22" t="s">
         <v>628</v>
       </c>
-      <c r="F18" s="17" t="s">
+      <c r="F18" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="G18" s="22" t="s">
+      <c r="G18" s="21" t="s">
         <v>670</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="14">
+      <c r="A19" s="13">
         <v>18</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="16" t="s">
         <v>557</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="16" t="s">
         <v>554</v>
       </c>
-      <c r="D19" s="19" t="s">
+      <c r="D19" s="18" t="s">
         <v>578</v>
       </c>
-      <c r="E19" s="21" t="s">
+      <c r="E19" s="20" t="s">
         <v>633</v>
       </c>
-      <c r="F19" s="19" t="s">
+      <c r="F19" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="G19" s="18" t="s">
+      <c r="G19" s="17" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="14">
+      <c r="A20" s="13">
         <v>19</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="16" t="s">
         <v>557</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="16" t="s">
         <v>554</v>
       </c>
-      <c r="D20" s="19" t="s">
+      <c r="D20" s="18" t="s">
         <v>578</v>
       </c>
-      <c r="E20" s="21" t="s">
+      <c r="E20" s="20" t="s">
         <v>633</v>
       </c>
-      <c r="F20" s="19" t="s">
+      <c r="F20" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="G20" s="18" t="s">
+      <c r="G20" s="17" t="s">
         <v>554</v>
       </c>
     </row>
@@ -14509,7 +14512,7 @@
       <c r="F24" s="3" t="s">
         <v>663</v>
       </c>
-      <c r="G24" s="14" t="s">
+      <c r="G24" s="13" t="s">
         <v>666</v>
       </c>
     </row>
@@ -14562,10 +14565,10 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C28" s="20" t="s">
+      <c r="C28" s="19" t="s">
         <v>644</v>
       </c>
-      <c r="D28" s="20" t="s">
+      <c r="D28" s="19" t="s">
         <v>651</v>
       </c>
       <c r="E28" s="3" t="s">
@@ -14604,7 +14607,7 @@
       </c>
     </row>
     <row r="34" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E34" s="20" t="s">
+      <c r="E34" s="19" t="s">
         <v>652</v>
       </c>
     </row>
@@ -14617,8 +14620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61234DCD-FF72-47E5-AF58-8EFE65BF83BF}">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14638,40 +14641,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>546</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>674</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>547</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="15" t="s">
         <v>674</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="14" t="s">
         <v>548</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="15" t="s">
         <v>674</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="15" t="s">
         <v>689</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="15" t="s">
         <v>674</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="15" t="s">
         <v>550</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="15" t="s">
         <v>674</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="14" t="s">
         <v>551</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="L1" s="15" t="s">
         <v>674</v>
       </c>
     </row>
@@ -14852,6 +14855,9 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
+        <v>690</v>
+      </c>
       <c r="G9" t="s">
         <v>685</v>
       </c>
@@ -14894,7 +14900,7 @@
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
-      <c r="K22" s="14"/>
+      <c r="K22" s="13"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
@@ -14938,10 +14944,10 @@
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
@@ -15020,8 +15026,8 @@
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
